--- a/Descargas/R15_4º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Febrero.xlsx
+++ b/Descargas/R15_4º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Febrero.xlsx
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="B54" s="65">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B56" s="65">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
